--- a/tests/testdata/test_material_input.xlsx
+++ b/tests/testdata/test_material_input.xlsx
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="189">
   <si>
     <t>f_y</t>
   </si>
@@ -673,6 +673,42 @@
   </si>
   <si>
     <t>F_sd_s_r</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Wheel_Relative_Number_of_Rolling_Contacts v_c</t>
+  </si>
+  <si>
+    <t>v_c_w</t>
+  </si>
+  <si>
+    <t>Rail_Relative_Number_of_Rolling_Contacts v_c</t>
+  </si>
+  <si>
+    <t>v_c_r</t>
+  </si>
+  <si>
+    <t>Dynamic_Factor</t>
+  </si>
+  <si>
+    <t>phi</t>
   </si>
 </sst>
 </file>
@@ -683,7 +719,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +795,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -796,7 +840,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -904,13 +948,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -935,9 +997,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1025,6 +1084,12 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1036,9 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1780,1321 +1842,1419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" customWidth="1"/>
-    <col min="4" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="40"/>
-      <c r="B2" s="12" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="43"/>
+      <c r="B3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="40"/>
-      <c r="B3" s="12" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="43"/>
+      <c r="B4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="40"/>
-      <c r="B4" s="12" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="43"/>
+      <c r="B5" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>0.95</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>0.95</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>0.9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>0.9</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="40"/>
-      <c r="B5" s="12" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="43"/>
+      <c r="B6" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>450</v>
       </c>
-      <c r="F5">
+      <c r="F6" s="2">
         <v>100</v>
       </c>
-      <c r="G5">
+      <c r="G6" s="2">
         <v>100</v>
       </c>
-      <c r="H5">
+      <c r="H6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="40"/>
-      <c r="B6" s="12" t="s">
+    <row r="7" spans="1:8">
+      <c r="A7" s="43"/>
+      <c r="B7" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="40"/>
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="43"/>
+      <c r="B8" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G8" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="12" t="s">
+    <row r="9" spans="1:8">
+      <c r="A9" s="43"/>
+      <c r="B9" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="40"/>
-      <c r="B9" s="12" t="s">
+    <row r="10" spans="1:8">
+      <c r="A10" s="43"/>
+      <c r="B10" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="43"/>
+      <c r="B11" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="43"/>
+      <c r="B12" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="43"/>
+      <c r="B13" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D13" s="2">
         <v>30000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E13" s="2">
         <v>1600000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F13" s="2">
         <v>40000</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G13" s="2">
         <v>4000000</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H13" s="2">
         <v>23000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="40"/>
-      <c r="B10" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="2">
-        <v>15000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>18000</v>
-      </c>
-      <c r="G10" s="2">
-        <v>18000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="40"/>
-      <c r="B11" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="40"/>
-      <c r="B12" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="44">
-        <v>2000</v>
-      </c>
-      <c r="E12" s="44">
-        <v>2000</v>
-      </c>
-      <c r="F12" s="44">
-        <v>2000</v>
-      </c>
-      <c r="G12" s="44">
-        <v>2000</v>
-      </c>
-      <c r="H12" s="44">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="A13" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>24.9397924881983</v>
-      </c>
-      <c r="E13">
-        <v>29.846033506748501</v>
-      </c>
-      <c r="F13">
-        <v>21.549071913738601</v>
-      </c>
-      <c r="G13">
-        <v>30.724628045371599</v>
-      </c>
-      <c r="H13">
-        <v>24.603567265875999</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="43"/>
       <c r="B14" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>0.397534327540081</v>
-      </c>
-      <c r="E14">
-        <v>0.38745672969163403</v>
-      </c>
-      <c r="F14">
-        <v>0.27778552720397198</v>
-      </c>
-      <c r="G14">
-        <v>0.38853068564494597</v>
-      </c>
-      <c r="H14">
-        <v>0.39281645770158102</v>
+        <v>92</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>18000</v>
+      </c>
+      <c r="G14" s="2">
+        <v>18000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12000</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="43"/>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15">
-        <v>310.53423258511901</v>
-      </c>
-      <c r="E15">
-        <v>311.82631932244198</v>
-      </c>
-      <c r="F15">
-        <v>262.54231664112598</v>
-      </c>
-      <c r="G15">
-        <v>334.01554867815503</v>
-      </c>
-      <c r="H15">
-        <v>217.83710715883799</v>
+      <c r="B15" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="43"/>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="39">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="39">
+        <v>2000</v>
+      </c>
+      <c r="F16" s="39">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="39">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1">
+      <c r="A17" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>24.9397924881983</v>
+      </c>
+      <c r="E17">
+        <v>29.846033506748501</v>
+      </c>
+      <c r="F17">
+        <v>21.549071913738601</v>
+      </c>
+      <c r="G17">
+        <v>30.724628045371599</v>
+      </c>
+      <c r="H17">
+        <v>24.603567265875999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="46"/>
+      <c r="B18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>0.397534327540081</v>
+      </c>
+      <c r="E18">
+        <v>0.38745672969163403</v>
+      </c>
+      <c r="F18">
+        <v>0.27778552720397198</v>
+      </c>
+      <c r="G18">
+        <v>0.38853068564494597</v>
+      </c>
+      <c r="H18">
+        <v>0.39281645770158102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="46"/>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19">
+        <v>310.53423258511901</v>
+      </c>
+      <c r="E19">
+        <v>311.82631932244198</v>
+      </c>
+      <c r="F19">
+        <v>262.54231664112598</v>
+      </c>
+      <c r="G19">
+        <v>334.01554867815503</v>
+      </c>
+      <c r="H19">
+        <v>217.83710715883799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="46"/>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <v>0.43852951083798603</v>
       </c>
-      <c r="E16">
+      <c r="E20">
         <v>0.27896020164795099</v>
       </c>
-      <c r="F16">
+      <c r="F20">
         <v>0.41639127372561502</v>
       </c>
-      <c r="G16">
+      <c r="G20">
         <v>0.36908011038102101</v>
       </c>
-      <c r="H16">
+      <c r="H20">
         <v>0.33759378483001701</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="43"/>
-      <c r="B17" t="s">
+    <row r="21" spans="1:8">
+      <c r="A21" s="46"/>
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <v>9592.8821295104699</v>
       </c>
-      <c r="E17">
+      <c r="E21">
         <v>13728.6250951821</v>
       </c>
-      <c r="F17">
+      <c r="F21">
         <v>9530.9428397424908</v>
       </c>
-      <c r="G17">
+      <c r="G21">
         <v>11844.471056845599</v>
       </c>
-      <c r="H17">
+      <c r="H21">
         <v>7039.1850549506698</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="43"/>
-      <c r="B18" t="s">
+    <row r="22" spans="1:8">
+      <c r="A22" s="46"/>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <v>6.9859353305379797</v>
       </c>
-      <c r="E18">
+      <c r="E22">
         <v>4.8667038063889603</v>
       </c>
-      <c r="F18">
+      <c r="F22">
         <v>5.9682746322479998</v>
       </c>
-      <c r="G18">
+      <c r="G22">
         <v>7.6920989582716999</v>
       </c>
-      <c r="H18">
+      <c r="H22">
         <v>7.9973902757422897</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="43"/>
-      <c r="B19" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="46"/>
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C23" t="s">
         <v>50</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.36032232455732299</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>0.43263553136410199</v>
       </c>
-      <c r="F19">
+      <c r="F23">
         <v>0.311870213321776</v>
       </c>
-      <c r="G19">
+      <c r="G23">
         <v>0.34484796209278801</v>
       </c>
-      <c r="H19">
+      <c r="H23">
         <v>0.43685550941856799</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="43"/>
-      <c r="B20" t="s">
+    <row r="24" spans="1:8">
+      <c r="A24" s="46"/>
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>52</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <v>235.360704664796</v>
       </c>
-      <c r="E20">
+      <c r="E24">
         <v>208.806759033595</v>
       </c>
-      <c r="F20">
+      <c r="F24">
         <v>226.06765407211699</v>
       </c>
-      <c r="G20">
+      <c r="G24">
         <v>392.86734368371702</v>
       </c>
-      <c r="H20">
+      <c r="H24">
         <v>391.55736926069602</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="43"/>
-      <c r="B21" t="s">
+    <row r="25" spans="1:8">
+      <c r="A25" s="46"/>
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>54</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <v>3620.8448324163101</v>
       </c>
-      <c r="E21">
+      <c r="E25">
         <v>2311.15858694705</v>
       </c>
-      <c r="F21">
+      <c r="F25">
         <v>2343.2994179618399</v>
       </c>
-      <c r="G21">
+      <c r="G25">
         <v>4284.9699230713404</v>
       </c>
-      <c r="H21">
+      <c r="H25">
         <v>3659.2272904198899</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="43"/>
-      <c r="B22" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="46"/>
+      <c r="B26" t="s">
         <v>55</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C26" t="s">
         <v>56</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <v>1.13373577673032</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <v>2.4258179969420199</v>
       </c>
-      <c r="F22">
+      <c r="F26">
         <v>2.3873285971102698</v>
       </c>
-      <c r="G22">
+      <c r="G26">
         <v>1.4564750409017799</v>
       </c>
-      <c r="H22">
+      <c r="H26">
         <v>0.99721191005946297</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="43"/>
-      <c r="B23" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="46"/>
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C27" t="s">
         <v>58</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <v>0.67575877439752896</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <v>0.51712000434017502</v>
       </c>
-      <c r="F23">
+      <c r="F27">
         <v>0.801477721483979</v>
       </c>
-      <c r="G23">
+      <c r="G27">
         <v>9.8010774605840997E-2</v>
       </c>
-      <c r="H23">
+      <c r="H27">
         <v>0.74159415955053198</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="43"/>
-      <c r="B24" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="46"/>
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <v>3.8387980542432998</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <v>1.8776339003870799</v>
       </c>
-      <c r="F24">
+      <c r="F28">
         <v>3.3657208787845398</v>
       </c>
-      <c r="G24">
+      <c r="G28">
         <v>2.4178541756165899</v>
       </c>
-      <c r="H24">
+      <c r="H28">
         <v>1.56466211459187</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="43"/>
-      <c r="B25" t="s">
+    <row r="29" spans="1:8">
+      <c r="A29" s="46"/>
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C29" t="s">
         <v>62</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <v>0.82317441160238602</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>0.63680145228157503</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <v>0.85382760203728802</v>
       </c>
-      <c r="G25">
+      <c r="G29">
         <v>0.594424181188418</v>
       </c>
-      <c r="H25">
+      <c r="H29">
         <v>0.58201942471427504</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="43"/>
-      <c r="B26" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="46"/>
+      <c r="B30" t="s">
         <v>63</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C30" t="s">
         <v>64</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <v>2351.0358557609202</v>
       </c>
-      <c r="E26">
+      <c r="E30">
         <v>4305.6905785423696</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <v>5592.7916508867802</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>1093.0004954073299</v>
       </c>
-      <c r="H26">
+      <c r="H30">
         <v>5316.4232733114604</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="43"/>
-      <c r="B27" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="46"/>
+      <c r="B31" t="s">
         <v>65</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C31" t="s">
         <v>66</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>479.56427978543297</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>342.07526272382</v>
       </c>
-      <c r="F27">
+      <c r="F31">
         <v>629.09549703360005</v>
       </c>
-      <c r="G27">
+      <c r="G31">
         <v>1336.8970567521501</v>
       </c>
-      <c r="H27">
+      <c r="H31">
         <v>1431.3338377950799</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="43"/>
-      <c r="B28" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="46"/>
+      <c r="B32" t="s">
         <v>67</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C32" t="s">
         <v>68</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <v>1.5209241133552001</v>
       </c>
-      <c r="E28">
+      <c r="E32">
         <v>1.4611356146706</v>
       </c>
-      <c r="F28">
+      <c r="F32">
         <v>1.17459338972312</v>
       </c>
-      <c r="G28">
+      <c r="G32">
         <v>1.17980028181748</v>
       </c>
-      <c r="H28">
+      <c r="H32">
         <v>0.97421919684422997</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="43"/>
-      <c r="B29" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="46"/>
+      <c r="B33" t="s">
         <v>69</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C33" t="s">
         <v>70</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <v>148.023377589456</v>
       </c>
-      <c r="E29">
+      <c r="E33">
         <v>196.39317107510001</v>
       </c>
-      <c r="F29">
+      <c r="F33">
         <v>170.37252984731199</v>
       </c>
-      <c r="G29">
+      <c r="G33">
         <v>285.26395874702098</v>
       </c>
-      <c r="H29">
+      <c r="H33">
         <v>203.71546054260199</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="43"/>
-      <c r="B30" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="46"/>
+      <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D34" s="2">
         <v>100000</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E34" s="2">
         <v>100000</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F34" s="2">
         <v>100000</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G34" s="2">
         <v>100000</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H34" s="2">
         <v>100000</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="43"/>
-      <c r="B31" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="46"/>
+      <c r="B35" t="s">
         <v>94</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C35" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D35" s="2">
         <v>500000</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E35" s="2">
         <v>500000</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F35" s="2">
         <v>800000</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G35" s="2">
         <v>100000</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H35" s="2">
         <v>200000</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="43"/>
-      <c r="B32" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="46"/>
+      <c r="B36" t="s">
         <v>95</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>84</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <v>1</v>
       </c>
-      <c r="E32">
+      <c r="E36">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <v>4</v>
       </c>
-      <c r="G32">
+      <c r="G36">
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="H36">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="41" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C37" t="s">
         <v>152</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="41"/>
-      <c r="B34" t="s">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="44"/>
+      <c r="B38" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C38" t="s">
         <v>153</v>
       </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="41"/>
-      <c r="B35" t="s">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="44"/>
+      <c r="B39" t="s">
         <v>101</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>101</v>
       </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="42" t="s">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" t="s">
         <v>118</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C40" t="s">
         <v>154</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <v>10</v>
       </c>
-      <c r="E36">
+      <c r="E40">
         <v>100</v>
       </c>
-      <c r="F36">
+      <c r="F40">
         <v>100</v>
       </c>
-      <c r="G36">
+      <c r="G40">
         <v>100</v>
       </c>
-      <c r="H36">
+      <c r="H40">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="42"/>
-      <c r="B37" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="45"/>
+      <c r="B41" t="s">
         <v>119</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C41" t="s">
         <v>155</v>
       </c>
-      <c r="D37">
+      <c r="D41">
         <v>30</v>
       </c>
-      <c r="E37">
+      <c r="E41">
         <v>450</v>
       </c>
-      <c r="F37">
+      <c r="F41">
         <v>100</v>
       </c>
-      <c r="G37">
+      <c r="G41">
         <v>100</v>
       </c>
-      <c r="H37">
+      <c r="H41">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="42"/>
-      <c r="B38" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="45"/>
+      <c r="B42" t="s">
         <v>120</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C42" t="s">
         <v>156</v>
       </c>
-      <c r="D38">
+      <c r="D42">
         <v>200</v>
       </c>
-      <c r="E38">
+      <c r="E42">
         <v>30000</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="42"/>
-      <c r="B39" t="s">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="45"/>
+      <c r="B43" t="s">
         <v>121</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C43" t="s">
         <v>157</v>
       </c>
-      <c r="D39">
+      <c r="D43">
         <v>1000</v>
       </c>
-      <c r="E39">
+      <c r="E43">
         <v>360</v>
       </c>
-      <c r="F39">
+      <c r="F43">
         <v>10</v>
       </c>
-      <c r="G39">
+      <c r="G43">
         <v>11</v>
       </c>
-      <c r="H39">
+      <c r="H43">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="42"/>
-      <c r="B40" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="45"/>
+      <c r="B44" t="s">
         <v>122</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>158</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D44" t="s">
         <v>114</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E44" t="s">
         <v>115</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F44" t="s">
         <v>115</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G44" t="s">
         <v>115</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H44" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="42"/>
-      <c r="B41" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="45"/>
+      <c r="B45" t="s">
         <v>141</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C45" t="s">
         <v>159</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="F41">
+      <c r="F45">
         <v>0.85</v>
       </c>
-      <c r="G41">
-        <f>(0.58+0.15*(G39/G37))/0.7</f>
+      <c r="G45">
+        <f>(0.58+0.15*(G43/G41))/0.7</f>
         <v>0.85214285714285709</v>
       </c>
-      <c r="H41">
+      <c r="H45">
         <v>0.85</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="42"/>
-      <c r="B42" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="45"/>
+      <c r="B46" t="s">
         <v>142</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C46" t="s">
         <v>160</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <v>1</v>
       </c>
-      <c r="E42">
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="F42">
-        <f>(0.005/F3)^(1/3)</f>
+      <c r="F46">
+        <f>(0.005/F4)^(1/3)</f>
         <v>0.94103602888102855</v>
       </c>
-      <c r="G42">
-        <f>(0.005/G3)^(1/3)</f>
+      <c r="G46">
+        <f>(0.005/G4)^(1/3)</f>
         <v>0.94103602888102855</v>
       </c>
-      <c r="H42">
+      <c r="H46">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="42" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>143</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C47" t="s">
         <v>161</v>
       </c>
-      <c r="D43">
+      <c r="D47">
         <v>0.3</v>
       </c>
-      <c r="E43">
+      <c r="E47">
         <v>0.3</v>
       </c>
-      <c r="F43">
+      <c r="F47">
         <v>0.3</v>
       </c>
-      <c r="G43">
+      <c r="G47">
         <v>0.3</v>
       </c>
-      <c r="H43">
+      <c r="H47">
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="42"/>
-      <c r="B44" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="45"/>
+      <c r="B48" t="s">
         <v>172</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C48" t="s">
         <v>162</v>
       </c>
-      <c r="D44">
+      <c r="D48">
         <v>0.2</v>
       </c>
-      <c r="E44">
+      <c r="E48">
         <v>0.2</v>
       </c>
-      <c r="F44">
+      <c r="F48">
         <v>0.2</v>
       </c>
-      <c r="G44">
+      <c r="G48">
         <v>0.2</v>
       </c>
-      <c r="H44">
+      <c r="H48">
         <v>0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="42"/>
-      <c r="B45" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="45"/>
+      <c r="B49" t="s">
         <v>144</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C49" t="s">
         <v>163</v>
       </c>
-      <c r="D45">
+      <c r="D49">
         <v>210000</v>
       </c>
-      <c r="E45">
+      <c r="E49">
         <v>210000</v>
       </c>
-      <c r="F45">
+      <c r="F49">
         <v>210000</v>
       </c>
-      <c r="G45">
+      <c r="G49">
         <v>210000</v>
       </c>
-      <c r="H45">
+      <c r="H49">
         <v>210000</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="42"/>
-      <c r="B46" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="45"/>
+      <c r="B50" t="s">
         <v>145</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C50" t="s">
         <v>164</v>
       </c>
-      <c r="D46">
+      <c r="D50">
         <v>177000</v>
       </c>
-      <c r="E46">
+      <c r="E50">
         <v>210000</v>
       </c>
-      <c r="F46">
+      <c r="F50">
         <v>210000</v>
       </c>
-      <c r="G46">
+      <c r="G50">
         <v>210000</v>
       </c>
-      <c r="H46">
+      <c r="H50">
         <v>210000</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="42"/>
-      <c r="B47" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="45"/>
+      <c r="B51" t="s">
         <v>146</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C51" t="s">
         <v>165</v>
       </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="42"/>
-      <c r="B48" t="s">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="45"/>
+      <c r="B52" t="s">
         <v>147</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C52" t="s">
         <v>166</v>
       </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
         <v>10</v>
       </c>
-      <c r="F48">
+      <c r="F52">
         <v>10</v>
       </c>
-      <c r="G48">
+      <c r="G52">
         <v>10</v>
       </c>
-      <c r="H48">
+      <c r="H52">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="42"/>
-      <c r="B49" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="45"/>
+      <c r="B53" t="s">
         <v>148</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" t="s">
         <v>167</v>
       </c>
-      <c r="D49">
+      <c r="D53">
         <v>760</v>
       </c>
-      <c r="E49">
+      <c r="E53">
         <v>360</v>
       </c>
-      <c r="F49">
+      <c r="F53">
         <v>360</v>
       </c>
-      <c r="G49">
+      <c r="G53">
         <v>360</v>
       </c>
-      <c r="H49">
+      <c r="H53">
         <v>360</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="42"/>
-      <c r="B50" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="45"/>
+      <c r="B54" t="s">
         <v>149</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" t="s">
         <v>168</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <v>600</v>
       </c>
-      <c r="E50">
+      <c r="E54">
         <v>420</v>
       </c>
-      <c r="F50">
+      <c r="F54">
         <v>420</v>
       </c>
-      <c r="G50">
+      <c r="G54">
         <v>420</v>
       </c>
-      <c r="H50">
+      <c r="H54">
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="42"/>
-      <c r="B51" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="45"/>
+      <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C55" t="s">
         <v>169</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <v>225</v>
       </c>
-      <c r="E51">
+      <c r="E55">
         <v>125</v>
       </c>
-      <c r="F51">
+      <c r="F55">
         <v>125</v>
       </c>
-      <c r="G51">
+      <c r="G55">
         <v>125</v>
       </c>
-      <c r="H51">
+      <c r="H55">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="42"/>
-      <c r="B52" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="45"/>
+      <c r="B56" t="s">
         <v>150</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C56" t="s">
         <v>170</v>
       </c>
-      <c r="D52">
+      <c r="D56">
         <v>210</v>
       </c>
-      <c r="E52">
+      <c r="E56">
         <v>255</v>
       </c>
-      <c r="F52">
+      <c r="F56">
         <v>255</v>
       </c>
-      <c r="G52">
+      <c r="G56">
         <v>255</v>
       </c>
-      <c r="H52">
+      <c r="H56">
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="42"/>
-      <c r="B53" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="45"/>
+      <c r="B57" t="s">
         <v>151</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C57" t="s">
         <v>171</v>
       </c>
-      <c r="D53">
-        <f>(2*D45*D46)/(D45+D46)</f>
+      <c r="D57">
+        <f>(2*D49*D50)/(D49+D50)</f>
         <v>192093.02325581395</v>
       </c>
-      <c r="E53">
-        <f t="shared" ref="E53:H53" si="0">(2*E45*E46)/(E45+E46)</f>
+      <c r="E57">
+        <f t="shared" ref="E57:H57" si="0">(2*E49*E50)/(E49+E50)</f>
         <v>210000</v>
       </c>
-      <c r="F53">
+      <c r="F57">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="G53">
+      <c r="G57">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
-      <c r="H53">
+      <c r="H57">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:A12"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A36:A42"/>
-    <mergeCell ref="A43:A53"/>
-    <mergeCell ref="A13:A32"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A46"/>
+    <mergeCell ref="A47:A57"/>
+    <mergeCell ref="A17:A36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail and wheel materials&quot;" sqref="D8:H8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Note" prompt="If the desired material does not figrue on the list, please add it as well as its following parameters to the list in the worksheet &quot;rail and wheel materials&quot;" sqref="D9:H12"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3109,72 +3269,72 @@
       <selection activeCell="I9" sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.453125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
-    <col min="5" max="6" width="11.453125" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="E1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="98">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" ht="120">
+      <c r="A2" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3200,7 +3360,7 @@
       <c r="G3" s="4">
         <v>210000</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="19">
         <v>0.3</v>
       </c>
       <c r="I3" s="4">
@@ -3229,7 +3389,7 @@
       <c r="G4" s="4">
         <v>210000</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="19">
         <v>0.3</v>
       </c>
       <c r="I4" s="4">
@@ -3258,7 +3418,7 @@
       <c r="G5" s="4">
         <v>210000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="19">
         <v>0.3</v>
       </c>
       <c r="I5" s="4">
@@ -3287,7 +3447,7 @@
       <c r="G6" s="4">
         <v>210000</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <v>0.3</v>
       </c>
       <c r="I6" s="4">
@@ -3316,7 +3476,7 @@
       <c r="G7" s="4">
         <v>210000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="19">
         <v>0.3</v>
       </c>
       <c r="I7" s="4">
@@ -3345,7 +3505,7 @@
       <c r="G8" s="4">
         <v>210000</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="19">
         <v>0.3</v>
       </c>
       <c r="I8" s="4">
@@ -3374,7 +3534,7 @@
       <c r="G9" s="4">
         <v>210000</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="19">
         <v>0.3</v>
       </c>
       <c r="I9" s="4">
@@ -3400,72 +3560,72 @@
       <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="E1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="70">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" ht="75">
+      <c r="A2" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="25" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3485,10 +3645,10 @@
       <c r="E3" s="3">
         <v>520</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>1000</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="26">
         <v>210000</v>
       </c>
       <c r="H3" s="3">
@@ -3514,10 +3674,10 @@
       <c r="E4" s="7">
         <v>600</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>210</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>177000</v>
       </c>
       <c r="H4" s="3">
@@ -3543,10 +3703,10 @@
       <c r="E5" s="7">
         <v>700</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="29">
         <v>245</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="26">
         <v>180000</v>
       </c>
       <c r="H5" s="3">
@@ -3572,10 +3732,10 @@
       <c r="E6" s="7">
         <v>650</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>190</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>210000</v>
       </c>
       <c r="H6" s="3">
@@ -3601,10 +3761,10 @@
       <c r="E7" s="7">
         <v>700</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="29">
         <v>210</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="26">
         <v>180000</v>
       </c>
       <c r="H7" s="3">
@@ -3630,10 +3790,10 @@
       <c r="E8" s="7">
         <v>750</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>225</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>210000</v>
       </c>
       <c r="H8" s="3">
@@ -3659,10 +3819,10 @@
       <c r="E9" s="7">
         <v>1000</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="29">
         <v>295</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="26">
         <v>210000</v>
       </c>
       <c r="H9" s="3">
@@ -3688,10 +3848,10 @@
       <c r="E10" s="7">
         <v>420</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>255</v>
       </c>
-      <c r="G10" s="29">
+      <c r="G10" s="28">
         <v>210000</v>
       </c>
       <c r="H10" s="3">
@@ -3702,31 +3862,31 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>1.7224999999999999</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="17">
         <v>420</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <v>250</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="30">
         <v>210000</v>
       </c>
       <c r="H11" s="3">
         <v>0.2</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>10</v>
       </c>
     </row>
@@ -3747,39 +3907,39 @@
       <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3867,33 +4027,33 @@
       <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="38" t="s">
         <v>135</v>
       </c>
     </row>
